--- a/biology/Botanique/Granola_(pomme_de_terre)/Granola_(pomme_de_terre).xlsx
+++ b/biology/Botanique/Granola_(pomme_de_terre)/Granola_(pomme_de_terre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La 'Granola' est une variété cultivée de pommes de terre de consommation, d'origine allemande.
 Cette variété a été créée en 1975 par SaKa Pflanzenzucht GmbH, société appartenant au groupe Solana, spécialisée dans l'obtention de nouvelles variétés de pommes de terre et dans la distribution de semences.
-Elle a été de 1982 à 1994 l'une des variétés de pomme de terre les plus cultivées en Allemagne[1].
-C'est également la première variété de pommes de terre de consommation cultivée en Indonésie où elle occupe de 80 à 85 % de la sole cultivée en pommes de terre depuis les années 1980[2].
-C'est également la pomme de terre de consommation la plus répandue et la plus appréciée aux Philippines, notamment à Mindanao[3].
-La variété 'Granola' est aussi populaire dans certains pays d'Amérique latine (République dominicaine, Nicaragua et Panama) et d'Asie du Sud (Bangladesh et Sri-Lanka)[4]. 
+Elle a été de 1982 à 1994 l'une des variétés de pomme de terre les plus cultivées en Allemagne.
+C'est également la première variété de pommes de terre de consommation cultivée en Indonésie où elle occupe de 80 à 85 % de la sole cultivée en pommes de terre depuis les années 1980.
+C'est également la pomme de terre de consommation la plus répandue et la plus appréciée aux Philippines, notamment à Mindanao.
+La variété 'Granola' est aussi populaire dans certains pays d'Amérique latine (République dominicaine, Nicaragua et Panama) et d'Asie du Sud (Bangladesh et Sri-Lanka). 
 C'est une pomme de terre de consommation, polyvalente, classée dans le groupe B des types culinaires de pommes de terre, c'est-à-dire moyennement riche en fécule et propre à des utilisations variées en cuisine.
-Elle a été classée « pomme de terre de l'année » (Kartoffel des Jahres) en Allemagne en 2014[5].
+Elle a été classée « pomme de terre de l'année » (Kartoffel des Jahres) en Allemagne en 2014.
 </t>
         </is>
       </c>
@@ -519,16 +531,18 @@
           <t>Caractéristiques agronomiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété 'Granola' est une plante de taille moyenne à haute, à port semi-dressé, à maturité mi-précoce, au rendement moyen à élevé.
-Les feuilles sont grandes, de couleur verte à vert-clair. La floraison, aux fleurs violettes, est abondante[6].
+Les feuilles sont grandes, de couleur verte à vert-clair. La floraison, aux fleurs violettes, est abondante.
 Les tubercules, de forme ronde à ovale, de taille moyenne, ont une peau jaune clair, rugueuse, aux yeux superficiels.
 La chair est également jaune clair.
-Les germes, ovoïdes, ont une forte coloration anthocyanique[7].
+Les germes, ovoïdes, ont une forte coloration anthocyanique.
 C'est une pomme de terre qui offre de bonnes caractéristiques de résistance aux maladies et ravageurs. Elle a notamment une bonne ou assez bonne résistance à diverses maladies virales :   virus A, virus Yn, virus X et virus de l'enroulement.
-Concernant les maladies fongiques et bactériennes, elle a une résistance élevée à la pourriture sèche fusarienne ainsi qu'à la flétrissure bactérienne[3], mais une résistance moyenne à faible au mildiou du feuillage et du tubercule[2]. Elle est en revanche sensible à la gale commune[7].
-Elle est d'autre part résistante aux nématodes à kystes (Globodera rostochiensis, pathotypes Ro1-Ro4)[7],[6].
+Concernant les maladies fongiques et bactériennes, elle a une résistance élevée à la pourriture sèche fusarienne ainsi qu'à la flétrissure bactérienne, mais une résistance moyenne à faible au mildiou du feuillage et du tubercule. Elle est en revanche sensible à la gale commune.
+Elle est d'autre part résistante aux nématodes à kystes (Globodera rostochiensis, pathotypes Ro1-Ro4),.
 Elle offre aussi une résistance moyenne au noircissement interne.
 </t>
         </is>
